--- a/census_graphs/sources/DigitalDJTips - global census.xlsx
+++ b/census_graphs/sources/DigitalDJTips - global census.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>https://www.digitaldjtips.com/2019/02/final-results-are-in-for-the-worlds-biggest-digital-dj-survey/</t>
   </si>
@@ -84,16 +84,10 @@
     <t>Funk</t>
   </si>
   <si>
-    <t>Dowtempo / Lounge / Chillout</t>
-  </si>
-  <si>
     <t>Indie dance</t>
   </si>
   <si>
     <t>Serato DJ</t>
-  </si>
-  <si>
-    <t>RekordBox / RB DJ</t>
   </si>
   <si>
     <t>Traktor Pro</t>
@@ -131,21 +125,46 @@
   <si>
     <t>Djay (mac)</t>
   </si>
+  <si>
+    <t>https://www.digitaldjtips.com/2020/02/highlights-from-the-global-digital-dj-census-2020/</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Delta (%)</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Downtempo / Lounge / Chillout</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>RekordBox</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,6 +175,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,15 +223,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -272,7 +313,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$13</c:f>
+              <c:f>Sheet1!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -286,10 +327,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$12:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -304,16 +345,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$13:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$13:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>11.9</c:v>
                 </c:pt>
@@ -328,6 +372,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,7 +386,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$14</c:f>
+              <c:f>Sheet1!$L$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -353,10 +400,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$12:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -371,16 +418,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$14:$O$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$14:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -395,6 +445,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -406,7 +459,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$15</c:f>
+              <c:f>Sheet1!$L$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -420,10 +473,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$12:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -438,16 +491,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$15:$O$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$15:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6.2</c:v>
                 </c:pt>
@@ -462,6 +518,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,7 +532,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$16</c:f>
+              <c:f>Sheet1!$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -487,10 +546,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$12:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -505,16 +564,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$16:$O$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$16:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>13.3</c:v>
                 </c:pt>
@@ -529,6 +591,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -540,7 +605,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$17</c:f>
+              <c:f>Sheet1!$L$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -554,10 +619,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$12:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -572,16 +637,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$17:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$17:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10.5</c:v>
                 </c:pt>
@@ -596,6 +664,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,7 +678,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$18</c:f>
+              <c:f>Sheet1!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -621,10 +692,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$12:$O$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -639,16 +710,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$18:$O$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$18:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7.9</c:v>
                 </c:pt>
@@ -663,6 +737,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,11 +756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142850560"/>
-        <c:axId val="221008384"/>
+        <c:axId val="217052672"/>
+        <c:axId val="216867392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142850560"/>
+        <c:axId val="217052672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221008384"/>
+        <c:crossAx val="216867392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +778,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221008384"/>
+        <c:axId val="216867392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -713,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142850560"/>
+        <c:crossAx val="217052672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -790,7 +867,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$22</c:f>
+              <c:f>Sheet1!$L$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -804,10 +881,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -822,16 +899,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$22:$O$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$22:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>7.9</c:v>
                 </c:pt>
@@ -846,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +940,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$23</c:f>
+              <c:f>Sheet1!$L$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -871,10 +954,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -889,16 +972,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$23:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$23:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10.199999999999999</c:v>
                 </c:pt>
@@ -913,6 +999,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +1013,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$24</c:f>
+              <c:f>Sheet1!$L$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -938,10 +1027,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -956,16 +1045,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$24:$O$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$24:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -980,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,7 +1086,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$25</c:f>
+              <c:f>Sheet1!$L$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1005,10 +1100,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1023,16 +1118,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$25:$O$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$25:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.2</c:v>
                 </c:pt>
@@ -1047,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1159,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$26</c:f>
+              <c:f>Sheet1!$L$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1072,10 +1173,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1090,16 +1191,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$26:$O$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$26:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1114,6 +1218,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,7 +1232,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$27</c:f>
+              <c:f>Sheet1!$L$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1139,10 +1246,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1157,16 +1264,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$27:$O$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$27:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.4</c:v>
                 </c:pt>
@@ -1181,6 +1291,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,7 +1305,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$28</c:f>
+              <c:f>Sheet1!$L$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1206,10 +1319,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1224,16 +1337,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$28:$O$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$28:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1248,6 +1364,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,7 +1378,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$29</c:f>
+              <c:f>Sheet1!$L$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1273,10 +1392,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1291,16 +1410,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$29:$O$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$29:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1315,6 +1437,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,11 +1451,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$30</c:f>
+              <c:f>Sheet1!$L$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dowtempo / Lounge / Chillout</c:v>
+                  <c:v>Downtempo / Lounge / Chillout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1340,10 +1465,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1358,16 +1483,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$30:$O$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$30:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.7</c:v>
                 </c:pt>
@@ -1382,6 +1510,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,7 +1524,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$31</c:f>
+              <c:f>Sheet1!$L$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1407,10 +1538,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$21:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1425,16 +1556,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$31:$O$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$31:$R$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1449,6 +1583,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,11 +1602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142926336"/>
-        <c:axId val="136888896"/>
+        <c:axId val="217874432"/>
+        <c:axId val="216869696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142926336"/>
+        <c:axId val="217874432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136888896"/>
+        <c:crossAx val="216869696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1487,7 +1624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136888896"/>
+        <c:axId val="216869696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142926336"/>
+        <c:crossAx val="217874432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1561,7 +1698,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.399937061827397E-2"/>
+          <c:y val="0.1109834774525254"/>
+          <c:w val="0.82696935453749054"/>
+          <c:h val="0.82294045519456294"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1570,7 +1717,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$37</c:f>
+              <c:f>Sheet1!$L$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1582,12 +1729,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$36:$O$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$36:$R$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1602,18 +1785,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$37:$O$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>21.1</c:v>
+              <c:f>Sheet1!$M$37:$R$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24.6</c:v>
@@ -1625,7 +1811,10 @@
                   <c:v>34.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.1</c:v>
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,11 +1826,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$38</c:f>
+              <c:f>Sheet1!$L$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RekordBox / RB DJ</c:v>
+                  <c:v>RekordBox</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1649,12 +1838,53 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.118791255551038E-2"/>
+                  <c:y val="-6.3572638481942667E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$36:$O$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$36:$R$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1669,16 +1899,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$38:$O$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$38:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1692,7 +1925,10 @@
                   <c:v>14.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.2</c:v>
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,7 +1940,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$39</c:f>
+              <c:f>Sheet1!$L$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1716,12 +1952,46 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.245024234291864E-16"/>
+                  <c:y val="-1.5825558318220922E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$36:$O$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$36:$R$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1736,18 +2006,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$39:$O$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>27.5</c:v>
+              <c:f>Sheet1!$M$39:$R$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21.2</c:v>
@@ -1759,7 +2032,10 @@
                   <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,7 +2047,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$40</c:f>
+              <c:f>Sheet1!$L$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1783,12 +2059,46 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.245024234291864E-16"/>
+                  <c:y val="5.2751861060736085E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$36:$O$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$36:$R$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1803,18 +2113,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$40:$O$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>16.399999999999999</c:v>
+              <c:f>Sheet1!$M$40:$R$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.8</c:v>
@@ -1826,7 +2139,10 @@
                   <c:v>18.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.8</c:v>
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,7 +2154,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$41</c:f>
+              <c:f>Sheet1!$L$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1850,12 +2166,52 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6977799321609918E-3"/>
+                  <c:y val="-3.1651116636441746E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$36:$O$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$36:$R$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1870,18 +2226,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$41:$O$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.8</c:v>
+              <c:f>Sheet1!$M$41:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.5</c:v>
@@ -1893,7 +2252,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5</c:v>
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1910,11 +2272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142848000"/>
-        <c:axId val="188770560"/>
+        <c:axId val="217874944"/>
+        <c:axId val="216872000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142848000"/>
+        <c:axId val="217874944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1924,7 +2286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188770560"/>
+        <c:crossAx val="216872000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1932,7 +2294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188770560"/>
+        <c:axId val="216872000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,16 +2305,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142848000"/>
+        <c:crossAx val="217874944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2020,7 +2377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$45</c:f>
+              <c:f>Sheet1!$L$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2034,10 +2391,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2052,18 +2409,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$45:$O$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
+              <c:f>Sheet1!$M$45:$R$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.2000000000000002</c:v>
@@ -2076,6 +2436,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,7 +2450,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$46</c:f>
+              <c:f>Sheet1!$L$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2101,10 +2464,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2119,18 +2482,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$46:$O$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9.9</c:v>
+              <c:f>Sheet1!$M$46:$R$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.5</c:v>
@@ -2143,6 +2509,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,7 +2523,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$47</c:f>
+              <c:f>Sheet1!$L$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2168,10 +2537,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2186,18 +2555,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$47:$O$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.5</c:v>
+              <c:f>Sheet1!$M$47:$R$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.5</c:v>
@@ -2209,7 +2581,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8</c:v>
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,7 +2596,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$48</c:f>
+              <c:f>Sheet1!$L$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2235,10 +2610,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2253,16 +2628,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$48:$O$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$48:$R$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2277,6 +2655,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,7 +2669,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$49</c:f>
+              <c:f>Sheet1!$L$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2302,10 +2683,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2320,16 +2701,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$49:$O$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$49:$R$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2344,6 +2728,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2355,7 +2742,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$50</c:f>
+              <c:f>Sheet1!$L$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2369,10 +2756,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2387,16 +2774,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$50:$O$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$50:$R$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2411,6 +2801,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,7 +2815,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$51</c:f>
+              <c:f>Sheet1!$L$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2436,10 +2829,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2454,22 +2847,25 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$51:$O$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
+              <c:f>Sheet1!$M$51:$R$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>1.7</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
@@ -2478,6 +2874,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,7 +2888,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$52</c:f>
+              <c:f>Sheet1!$L$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2503,10 +2902,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2521,18 +2920,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$52:$O$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.8</c:v>
+              <c:f>Sheet1!$M$52:$R$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.6</c:v>
@@ -2544,6 +2946,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2556,7 +2961,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$53</c:f>
+              <c:f>Sheet1!$L$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2570,10 +2975,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2588,18 +2993,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$53:$O$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.8</c:v>
+              <c:f>Sheet1!$M$53:$R$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2611,6 +3019,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2623,7 +3034,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$54</c:f>
+              <c:f>Sheet1!$L$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2637,10 +3048,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$44:$O$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$44:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2655,18 +3066,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$54:$O$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.2</c:v>
+              <c:f>Sheet1!$M$54:$R$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2678,6 +3092,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2695,11 +3112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="17354240"/>
-        <c:axId val="188775168"/>
+        <c:axId val="217876480"/>
+        <c:axId val="216874304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17354240"/>
+        <c:axId val="217876480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +3126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188775168"/>
+        <c:crossAx val="216874304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2717,7 +3134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188775168"/>
+        <c:axId val="216874304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +3145,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17354240"/>
+        <c:crossAx val="217876480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2750,17 +3167,282 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>DigDJTips</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> global census - Windows vs Mac</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$59:$R$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$60:$R$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="232042496"/>
+        <c:axId val="44473088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="232042496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44473088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44473088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232042496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>493059</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>116541</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>8963</xdr:rowOff>
@@ -2784,13 +3466,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>125505</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>107576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>116540</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>58269</xdr:rowOff>
@@ -2814,13 +3496,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>103092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>89646</xdr:rowOff>
@@ -2844,13 +3526,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>58270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>98611</xdr:rowOff>
@@ -2867,6 +3549,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>494499</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3162,22 +3876,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O54"/>
+  <dimension ref="A2:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="AE7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" style="1" customWidth="1"/>
-    <col min="3" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="23.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="23.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -3185,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -3193,114 +3915,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K9" s="5" t="s">
+    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="M9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <f>C15</f>
         <v>2014</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <f>D15</f>
         <v>2015</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <f>E15</f>
         <v>2016</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <f>F15</f>
         <v>2017</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <f>G15</f>
         <v>2018</v>
       </c>
+      <c r="R12" s="1">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J13" s="1" t="str">
-        <f>B16</f>
+    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="L13" s="1" t="str">
+        <f t="shared" ref="L13:L18" si="0">B16</f>
         <v>HipHop / R&amp;B</v>
       </c>
-      <c r="K13" s="1">
-        <f>ROUND(C16*100/C$33,1)</f>
+      <c r="M13" s="1">
+        <f t="shared" ref="M13:R18" si="1">ROUND(C16*100/C$33,1)</f>
         <v>11.9</v>
       </c>
-      <c r="L13" s="1">
-        <f>ROUND(D16*100/D$33,1)</f>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="M13" s="1">
-        <f>ROUND(E16*100/E$33,1)</f>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N13" s="1">
-        <f>ROUND(F16*100/F$33,1)</f>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="O13" s="1">
-        <f>ROUND(G16*100/G$33,1)</f>
+      <c r="Q13" s="1">
+        <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
+      <c r="R13" s="1">
+        <f t="shared" si="1"/>
+        <v>15.1</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J14" s="1" t="str">
-        <f>B17</f>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>EDM / Big room house</v>
       </c>
-      <c r="K14" s="1">
-        <f>ROUND(C17*100/C$33,1)</f>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
-      <c r="L14" s="1">
-        <f>ROUND(D17*100/D$33,1)</f>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
         <v>13.1</v>
       </c>
-      <c r="M14" s="1">
-        <f>ROUND(E17*100/E$33,1)</f>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
-      <c r="N14" s="1">
-        <f>ROUND(F17*100/F$33,1)</f>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="O14" s="1">
-        <f>ROUND(G17*100/G$33,1)</f>
+      <c r="Q14" s="1">
+        <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
+      <c r="R14" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3">
         <v>2014</v>
@@ -3317,32 +4051,39 @@
       <c r="G15" s="3">
         <v>2018</v>
       </c>
-      <c r="J15" s="1" t="str">
-        <f>B18</f>
+      <c r="H15" s="7">
+        <v>2019</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>Other</v>
       </c>
-      <c r="K15" s="1">
-        <f>ROUND(C18*100/C$33,1)</f>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
         <v>6.2</v>
       </c>
-      <c r="L15" s="1">
-        <f>ROUND(D18*100/D$33,1)</f>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="M15" s="1">
-        <f>ROUND(E18*100/E$33,1)</f>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
-      <c r="N15" s="1">
-        <f>ROUND(F18*100/F$33,1)</f>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="O15" s="1">
-        <f>ROUND(G18*100/G$33,1)</f>
+      <c r="Q15" s="1">
+        <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
+      <c r="R15" s="1">
+        <f t="shared" si="1"/>
+        <v>12.6</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3362,32 +4103,39 @@
       <c r="G16" s="1">
         <v>16</v>
       </c>
-      <c r="J16" s="1" t="str">
-        <f>B19</f>
+      <c r="H16" s="1">
+        <v>15.11</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>Deep House</v>
       </c>
-      <c r="K16" s="1">
-        <f>ROUND(C19*100/C$33,1)</f>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
         <v>13.3</v>
       </c>
-      <c r="L16" s="1">
-        <f>ROUND(D19*100/D$33,1)</f>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
         <v>13.1</v>
       </c>
-      <c r="M16" s="1">
-        <f>ROUND(E19*100/E$33,1)</f>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
-      <c r="N16" s="1">
-        <f>ROUND(F19*100/F$33,1)</f>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O16" s="1">
-        <f>ROUND(G19*100/G$33,1)</f>
+      <c r="Q16" s="1">
+        <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
+      <c r="R16" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -3407,32 +4155,39 @@
       <c r="G17" s="1">
         <v>14</v>
       </c>
-      <c r="J17" s="1" t="str">
-        <f>B20</f>
+      <c r="H17" s="1">
+        <v>12.54</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>Tech House</v>
       </c>
-      <c r="K17" s="1">
-        <f>ROUND(C20*100/C$33,1)</f>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="L17" s="1">
-        <f>ROUND(D20*100/D$33,1)</f>
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
-      <c r="M17" s="1">
-        <f>ROUND(E20*100/E$33,1)</f>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
         <v>9.1</v>
       </c>
-      <c r="N17" s="1">
-        <f>ROUND(F20*100/F$33,1)</f>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O17" s="1">
-        <f>ROUND(G20*100/G$33,1)</f>
+      <c r="Q17" s="1">
+        <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
+      <c r="R17" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999993</v>
+      </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -3452,32 +4207,39 @@
       <c r="G18" s="1">
         <v>12</v>
       </c>
-      <c r="J18" s="1" t="str">
-        <f>B21</f>
+      <c r="H18" s="1">
+        <v>12.59</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>Techno</v>
       </c>
-      <c r="K18" s="1">
-        <f>ROUND(C21*100/C$33,1)</f>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
         <v>7.9</v>
       </c>
-      <c r="L18" s="1">
-        <f>ROUND(D21*100/D$33,1)</f>
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="M18" s="1">
-        <f>ROUND(E21*100/E$33,1)</f>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
         <v>7.3</v>
       </c>
-      <c r="N18" s="1">
-        <f>ROUND(F21*100/F$33,1)</f>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O18" s="1">
-        <f>ROUND(G21*100/G$33,1)</f>
+      <c r="Q18" s="1">
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
+      <c r="R18" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -3496,8 +4258,11 @@
       <c r="G19" s="1">
         <v>9</v>
       </c>
+      <c r="H19" s="1">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -3517,8 +4282,11 @@
       <c r="G20" s="1">
         <v>8</v>
       </c>
+      <c r="H20" s="1">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
@@ -3538,23 +4306,29 @@
       <c r="G21" s="1">
         <v>7</v>
       </c>
-      <c r="K21" s="1">
+      <c r="H21" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="M21" s="1">
         <v>2014</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>2015</v>
       </c>
-      <c r="M21" s="1">
+      <c r="O21" s="1">
         <v>2016</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>2017</v>
       </c>
-      <c r="O21" s="1">
+      <c r="Q21" s="1">
         <v>2018</v>
       </c>
+      <c r="R21" s="1">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -3573,32 +4347,39 @@
       <c r="G22" s="1">
         <v>6</v>
       </c>
-      <c r="J22" s="1" t="str">
-        <f t="shared" ref="J16:J53" si="0">B22</f>
+      <c r="H22" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" ref="L22:L40" si="2">B22</f>
         <v>Drum and bass / Trap</v>
       </c>
-      <c r="K22" s="1">
-        <f>ROUND(C22*100/C$33,1)</f>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22:M31" si="3">ROUND(C22*100/C$33,1)</f>
         <v>7.9</v>
       </c>
-      <c r="L22" s="1">
-        <f>ROUND(D22*100/D$33,1)</f>
+      <c r="N22" s="1">
+        <f t="shared" ref="N22:N31" si="4">ROUND(D22*100/D$33,1)</f>
         <v>8</v>
       </c>
-      <c r="M22" s="1">
-        <f>ROUND(E22*100/E$33,1)</f>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:O31" si="5">ROUND(E22*100/E$33,1)</f>
         <v>7.1</v>
       </c>
-      <c r="N22" s="1">
-        <f>ROUND(F22*100/F$33,1)</f>
+      <c r="P22" s="1">
+        <f t="shared" ref="P22:P31" si="6">ROUND(F22*100/F$33,1)</f>
         <v>7</v>
       </c>
-      <c r="O22" s="1">
-        <f>ROUND(G22*100/G$33,1)</f>
+      <c r="Q22" s="1">
+        <f t="shared" ref="Q22:R31" si="7">ROUND(G22*100/G$33,1)</f>
         <v>6.2</v>
       </c>
+      <c r="R22" s="1">
+        <f t="shared" si="7"/>
+        <v>7.7</v>
+      </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
@@ -3617,68 +4398,82 @@
       <c r="G23" s="1">
         <v>6</v>
       </c>
-      <c r="J23" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H23" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Pop</v>
       </c>
-      <c r="K23" s="1">
-        <f>ROUND(C23*100/C$33,1)</f>
+      <c r="M23" s="1">
+        <f t="shared" si="3"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="L23" s="1">
-        <f>ROUND(D23*100/D$33,1)</f>
+      <c r="N23" s="1">
+        <f t="shared" si="4"/>
         <v>11.9</v>
       </c>
-      <c r="M23" s="1">
-        <f>ROUND(E23*100/E$33,1)</f>
+      <c r="O23" s="1">
+        <f t="shared" si="5"/>
         <v>10.8</v>
       </c>
-      <c r="N23" s="1">
-        <f>ROUND(F23*100/F$33,1)</f>
+      <c r="P23" s="1">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="O23" s="1">
-        <f>ROUND(G23*100/G$33,1)</f>
+      <c r="Q23" s="1">
+        <f t="shared" si="7"/>
         <v>6.2</v>
       </c>
+      <c r="R23" s="1">
+        <f t="shared" si="7"/>
+        <v>7.8</v>
+      </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="1">
-        <f>G24</f>
+        <f t="shared" ref="F24:F31" si="8">G24</f>
         <v>4</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
-      <c r="J24" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H24" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Disco</v>
       </c>
-      <c r="K24" s="1">
-        <f>ROUND(C24*100/C$33,1)</f>
+      <c r="M24" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="1">
-        <f>ROUND(D24*100/D$33,1)</f>
+      <c r="N24" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M24" s="1">
-        <f>ROUND(E24*100/E$33,1)</f>
+      <c r="O24" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N24" s="1">
-        <f>ROUND(F24*100/F$33,1)</f>
+      <c r="P24" s="1">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="O24" s="1">
-        <f>ROUND(G24*100/G$33,1)</f>
+      <c r="Q24" s="1">
+        <f t="shared" si="7"/>
         <v>4.0999999999999996</v>
       </c>
+      <c r="R24" s="1">
+        <f t="shared" si="7"/>
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -3692,38 +4487,45 @@
         <v>10.5</v>
       </c>
       <c r="F25" s="1">
-        <f>G25</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="G25" s="1">
         <v>4</v>
       </c>
-      <c r="J25" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H25" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Trance</v>
       </c>
-      <c r="K25" s="1">
-        <f>ROUND(C25*100/C$33,1)</f>
+      <c r="M25" s="1">
+        <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
-      <c r="L25" s="1">
-        <f>ROUND(D25*100/D$33,1)</f>
+      <c r="N25" s="1">
+        <f t="shared" si="4"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="M25" s="1">
-        <f>ROUND(E25*100/E$33,1)</f>
+      <c r="O25" s="1">
+        <f t="shared" si="5"/>
         <v>3.8</v>
       </c>
-      <c r="N25" s="1">
-        <f>ROUND(F25*100/F$33,1)</f>
+      <c r="P25" s="1">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="O25" s="1">
-        <f>ROUND(G25*100/G$33,1)</f>
+      <c r="Q25" s="1">
+        <f t="shared" si="7"/>
         <v>4.0999999999999996</v>
       </c>
+      <c r="R25" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3737,38 +4539,45 @@
         <v>9.5</v>
       </c>
       <c r="F26" s="1">
-        <f>G26</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="J26" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H26" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Latin / Reggaeton</v>
       </c>
-      <c r="K26" s="1">
-        <f>ROUND(C26*100/C$33,1)</f>
+      <c r="M26" s="1">
+        <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
-      <c r="L26" s="1">
-        <f>ROUND(D26*100/D$33,1)</f>
+      <c r="N26" s="1">
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="M26" s="1">
-        <f>ROUND(E26*100/E$33,1)</f>
+      <c r="O26" s="1">
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="N26" s="1">
-        <f>ROUND(F26*100/F$33,1)</f>
+      <c r="P26" s="1">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="O26" s="1">
-        <f>ROUND(G26*100/G$33,1)</f>
+      <c r="Q26" s="1">
+        <f t="shared" si="7"/>
         <v>3.1</v>
       </c>
+      <c r="R26" s="1">
+        <f t="shared" si="7"/>
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
@@ -3782,112 +4591,133 @@
         <v>11</v>
       </c>
       <c r="F27" s="1">
-        <f>G27</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H27" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Soca / Reggae</v>
       </c>
-      <c r="K27" s="1">
-        <f>ROUND(C27*100/C$33,1)</f>
+      <c r="M27" s="1">
+        <f t="shared" si="3"/>
         <v>3.4</v>
       </c>
-      <c r="L27" s="1">
-        <f>ROUND(D27*100/D$33,1)</f>
+      <c r="N27" s="1">
+        <f t="shared" si="4"/>
         <v>4.8</v>
       </c>
-      <c r="M27" s="1">
-        <f>ROUND(E27*100/E$33,1)</f>
+      <c r="O27" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N27" s="1">
-        <f>ROUND(F27*100/F$33,1)</f>
+      <c r="P27" s="1">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O27" s="1">
-        <f>ROUND(G27*100/G$33,1)</f>
+      <c r="Q27" s="1">
+        <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
+      <c r="R27" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="1">
-        <f>G28</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H28" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Trap</v>
       </c>
-      <c r="K28" s="1">
-        <f>ROUND(C28*100/C$33,1)</f>
+      <c r="M28" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L28" s="1">
-        <f>ROUND(D28*100/D$33,1)</f>
+      <c r="N28" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M28" s="1">
-        <f>ROUND(E28*100/E$33,1)</f>
+      <c r="O28" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N28" s="1">
-        <f>ROUND(F28*100/F$33,1)</f>
+      <c r="P28" s="1">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O28" s="1">
-        <f>ROUND(G28*100/G$33,1)</f>
+      <c r="Q28" s="1">
+        <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
+      <c r="R28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="1">
-        <f>G29</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H29" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Funk</v>
       </c>
-      <c r="K29" s="1">
-        <f>ROUND(C29*100/C$33,1)</f>
+      <c r="M29" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="1">
-        <f>ROUND(D29*100/D$33,1)</f>
+      <c r="N29" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M29" s="1">
-        <f>ROUND(E29*100/E$33,1)</f>
+      <c r="O29" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N29" s="1">
-        <f>ROUND(F29*100/F$33,1)</f>
+      <c r="P29" s="1">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O29" s="1">
-        <f>ROUND(G29*100/G$33,1)</f>
+      <c r="Q29" s="1">
+        <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
+      <c r="R29" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
         <v>20</v>
@@ -3896,74 +4726,88 @@
         <v>11</v>
       </c>
       <c r="F30" s="1">
-        <f>G30</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dowtempo / Lounge / Chillout</v>
-      </c>
-      <c r="K30" s="1">
-        <f>ROUND(C30*100/C$33,1)</f>
+      <c r="H30" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Downtempo / Lounge / Chillout</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
-      <c r="L30" s="1">
-        <f>ROUND(D30*100/D$33,1)</f>
+      <c r="N30" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M30" s="1">
-        <f>ROUND(E30*100/E$33,1)</f>
+      <c r="O30" s="1">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="N30" s="1">
-        <f>ROUND(F30*100/F$33,1)</f>
+      <c r="P30" s="1">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O30" s="1">
-        <f>ROUND(G30*100/G$33,1)</f>
+      <c r="Q30" s="1">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="R30" s="1">
+        <f t="shared" si="7"/>
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" s="1">
-        <f>G31</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H31" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Indie dance</v>
       </c>
-      <c r="K31" s="1">
-        <f>ROUND(C31*100/C$33,1)</f>
+      <c r="M31" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="1">
-        <f>ROUND(D31*100/D$33,1)</f>
+      <c r="N31" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M31" s="1">
-        <f>ROUND(E31*100/E$33,1)</f>
+      <c r="O31" s="1">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N31" s="1">
-        <f>ROUND(F31*100/F$33,1)</f>
+      <c r="P31" s="1">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O31" s="1">
-        <f>ROUND(G31*100/G$33,1)</f>
+      <c r="Q31" s="1">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="R31" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3987,12 +4831,16 @@
         <f>SUM(G16:G31)</f>
         <v>97</v>
       </c>
-      <c r="J33" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H33" s="1">
+        <f>SUM(H16:H31)</f>
+        <v>100.00999999999999</v>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>sum</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -4000,7 +4848,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3">
         <f>C15</f>
@@ -4022,34 +4870,46 @@
         <f>G15</f>
         <v>2018</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3">
+      <c r="H36" s="7">
+        <f>H15</f>
+        <v>2019</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3">
         <f>C36</f>
         <v>2014</v>
       </c>
-      <c r="L36" s="3">
-        <f t="shared" ref="L36:O36" si="1">D36</f>
+      <c r="N36" s="3">
+        <f t="shared" ref="N36:Q36" si="9">D36</f>
         <v>2015</v>
       </c>
-      <c r="M36" s="3">
-        <f t="shared" si="1"/>
+      <c r="O36" s="3">
+        <f t="shared" si="9"/>
         <v>2016</v>
       </c>
-      <c r="N36" s="3">
-        <f t="shared" si="1"/>
+      <c r="P36" s="3">
+        <f t="shared" si="9"/>
         <v>2017</v>
       </c>
-      <c r="O36" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q36" s="3">
+        <f t="shared" si="9"/>
         <v>2018</v>
       </c>
+      <c r="R36" s="7">
+        <f>R21</f>
+        <v>2019</v>
+      </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
+        <f>36+10</f>
+        <v>46</v>
       </c>
       <c r="D37" s="1">
         <v>44</v>
@@ -4063,34 +4923,45 @@
       <c r="G37" s="1">
         <v>35</v>
       </c>
-      <c r="J37" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H37" s="1">
+        <v>33.35</v>
+      </c>
+      <c r="I37" s="10">
+        <f>(H37-G37)*100/G37</f>
+        <v>-4.71428571428571</v>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Serato DJ</v>
       </c>
-      <c r="K37" s="1">
-        <f>ROUND(C37*100/C$54,1)</f>
-        <v>21.1</v>
-      </c>
-      <c r="L37" s="1">
-        <f>ROUND(D37*100/D$54,1)</f>
+      <c r="M37" s="1">
+        <f>ROUND(C37*100/C$53,1)</f>
+        <v>25.4</v>
+      </c>
+      <c r="N37" s="1">
+        <f>ROUND(D37*100/D$53,1)</f>
         <v>24.6</v>
       </c>
-      <c r="M37" s="1">
-        <f>ROUND(E37*100/E$54,1)</f>
+      <c r="O37" s="1">
+        <f>ROUND(E37*100/E$53,1)</f>
         <v>24.9</v>
       </c>
-      <c r="N37" s="1">
-        <f>ROUND(F37*100/F$54,1)</f>
+      <c r="P37" s="1">
+        <f>ROUND(F37*100/F$53,1)</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="O37" s="1">
-        <f>ROUND(G37*100/G$54,1)</f>
-        <v>32.1</v>
+      <c r="Q37" s="1">
+        <f>ROUND(G37*100/G$53,1)</f>
+        <v>32.4</v>
+      </c>
+      <c r="R37" s="1">
+        <f>ROUND(H37*100/H$53,1)</f>
+        <v>33.9</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -4105,36 +4976,47 @@
         <v>15</v>
       </c>
       <c r="G38" s="1">
-        <v>22</v>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>RekordBox / RB DJ</v>
-      </c>
-      <c r="K38" s="1">
-        <f>ROUND(C38*100/C$54,1)</f>
+        <v>21</v>
+      </c>
+      <c r="H38" s="1">
+        <v>23.65</v>
+      </c>
+      <c r="I38" s="10">
+        <f>(H38-G38)*100/G38</f>
+        <v>12.619047619047613</v>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>RekordBox</v>
+      </c>
+      <c r="M38" s="1">
+        <f>ROUND(C38*100/C$53,1)</f>
         <v>0</v>
       </c>
-      <c r="L38" s="1">
-        <f>ROUND(D38*100/D$54,1)</f>
+      <c r="N38" s="1">
+        <f>ROUND(D38*100/D$53,1)</f>
         <v>7.3</v>
       </c>
-      <c r="M38" s="1">
-        <f>ROUND(E38*100/E$54,1)</f>
+      <c r="O38" s="1">
+        <f>ROUND(E38*100/E$53,1)</f>
         <v>11.1</v>
       </c>
-      <c r="N38" s="1">
-        <f>ROUND(F38*100/F$54,1)</f>
+      <c r="P38" s="1">
+        <f>ROUND(F38*100/F$53,1)</f>
         <v>14.9</v>
       </c>
-      <c r="O38" s="1">
-        <f>ROUND(G38*100/G$54,1)</f>
-        <v>20.2</v>
+      <c r="Q38" s="1">
+        <f>ROUND(G38*100/G$53,1)</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" ref="R38:R41" si="10">ROUND(H38*100/H$53,1)</f>
+        <v>24.1</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1">
         <v>47</v>
@@ -4151,34 +5033,45 @@
       <c r="G39" s="1">
         <v>19</v>
       </c>
-      <c r="J39" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H39" s="1">
+        <v>16.41</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" ref="I39:I41" si="11">(H39-G39)*100/G39</f>
+        <v>-13.631578947368421</v>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Traktor Pro</v>
       </c>
-      <c r="K39" s="1">
-        <f>ROUND(C39*100/C$54,1)</f>
-        <v>27.5</v>
-      </c>
-      <c r="L39" s="1">
-        <f>ROUND(D39*100/D$54,1)</f>
+      <c r="M39" s="1">
+        <f>ROUND(C39*100/C$53,1)</f>
+        <v>26</v>
+      </c>
+      <c r="N39" s="1">
+        <f>ROUND(D39*100/D$53,1)</f>
         <v>21.2</v>
       </c>
-      <c r="M39" s="1">
-        <f>ROUND(E39*100/E$54,1)</f>
+      <c r="O39" s="1">
+        <f>ROUND(E39*100/E$53,1)</f>
         <v>20.6</v>
       </c>
-      <c r="N39" s="1">
-        <f>ROUND(F39*100/F$54,1)</f>
+      <c r="P39" s="1">
+        <f>ROUND(F39*100/F$53,1)</f>
         <v>21.8</v>
       </c>
-      <c r="O39" s="1">
-        <f>ROUND(G39*100/G$54,1)</f>
-        <v>17.399999999999999</v>
+      <c r="Q39" s="1">
+        <f>ROUND(G39*100/G$53,1)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="10"/>
+        <v>16.7</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1">
         <v>28</v>
@@ -4195,32 +5088,43 @@
       <c r="G40" s="1">
         <v>15</v>
       </c>
-      <c r="J40" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H40" s="1">
+        <v>15.88</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="11"/>
+        <v>5.8666666666666725</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>Virtual DJ</v>
       </c>
-      <c r="K40" s="1">
-        <f>ROUND(C40*100/C$54,1)</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L40" s="1">
-        <f>ROUND(D40*100/D$54,1)</f>
+      <c r="M40" s="1">
+        <f>ROUND(C40*100/C$53,1)</f>
+        <v>15.5</v>
+      </c>
+      <c r="N40" s="1">
+        <f>ROUND(D40*100/D$53,1)</f>
         <v>16.8</v>
       </c>
-      <c r="M40" s="1">
-        <f>ROUND(E40*100/E$54,1)</f>
+      <c r="O40" s="1">
+        <f>ROUND(E40*100/E$53,1)</f>
         <v>17.3</v>
       </c>
-      <c r="N40" s="1">
-        <f>ROUND(F40*100/F$54,1)</f>
+      <c r="P40" s="1">
+        <f>ROUND(F40*100/F$53,1)</f>
         <v>18.8</v>
       </c>
-      <c r="O40" s="1">
-        <f>ROUND(G40*100/G$54,1)</f>
-        <v>13.8</v>
+      <c r="Q40" s="1">
+        <f>ROUND(G40*100/G$53,1)</f>
+        <v>13.9</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="10"/>
+        <v>16.2</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
@@ -4236,34 +5140,45 @@
       <c r="G41" s="1">
         <v>6</v>
       </c>
-      <c r="J41" s="1" t="str">
+      <c r="H41" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="11"/>
+        <v>-35.333333333333336</v>
+      </c>
+      <c r="L41" s="1" t="str">
         <f>B41</f>
         <v>Other</v>
       </c>
-      <c r="K41" s="1">
-        <f>ROUND(C41*100/C$54,1)</f>
-        <v>5.8</v>
-      </c>
-      <c r="L41" s="1">
-        <f>ROUND(D41*100/D$54,1)</f>
+      <c r="M41" s="1">
+        <f>ROUND(C41*100/C$53,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N41" s="1">
+        <f>ROUND(D41*100/D$53,1)</f>
         <v>4.5</v>
       </c>
-      <c r="M41" s="1">
-        <f>ROUND(E41*100/E$54,1)</f>
+      <c r="O41" s="1">
+        <f>ROUND(E41*100/E$53,1)</f>
         <v>4.3</v>
       </c>
-      <c r="N41" s="1">
-        <f>ROUND(F41*100/F$54,1)</f>
+      <c r="P41" s="1">
+        <f>ROUND(F41*100/F$53,1)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="1">
-        <f>ROUND(G41*100/G$54,1)</f>
-        <v>5.5</v>
+      <c r="Q41" s="1">
+        <f>ROUND(G41*100/G$53,1)</f>
+        <v>5.6</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="10"/>
+        <v>3.9</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -4280,10 +5195,13 @@
       <c r="G42" s="1">
         <v>3</v>
       </c>
+      <c r="H42" s="1">
+        <v>1.57</v>
+      </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1">
         <v>17</v>
@@ -4300,10 +5218,13 @@
       <c r="G43" s="1">
         <v>3</v>
       </c>
+      <c r="H43" s="1">
+        <v>1.48</v>
+      </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="1">
         <v>6</v>
@@ -4320,25 +5241,32 @@
       <c r="G44" s="1">
         <v>2</v>
       </c>
-      <c r="K44" s="1">
+      <c r="H44" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="M44" s="1">
         <v>2014</v>
       </c>
-      <c r="L44" s="1">
+      <c r="N44" s="1">
         <v>2015</v>
       </c>
-      <c r="M44" s="1">
+      <c r="O44" s="1">
         <v>2016</v>
       </c>
-      <c r="N44" s="1">
+      <c r="P44" s="1">
         <v>2017</v>
       </c>
-      <c r="O44" s="1">
+      <c r="Q44" s="1">
         <v>2018</v>
       </c>
+      <c r="R44" s="1">
+        <f>R36</f>
+        <v>2019</v>
+      </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -4352,34 +5280,41 @@
       <c r="G45" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="1" t="str">
-        <f>B42</f>
+      <c r="H45" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" ref="L45:L54" si="12">B42</f>
         <v>DJay Pro (mac)</v>
       </c>
-      <c r="K45" s="1">
-        <f>ROUND(C42*100/C$54,1)</f>
-        <v>1.2</v>
-      </c>
-      <c r="L45" s="1">
-        <f>ROUND(D42*100/D$54,1)</f>
+      <c r="M45" s="1">
+        <f>ROUND(C42*100/C$53,1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N45" s="1">
+        <f>ROUND(D42*100/D$53,1)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="M45" s="1">
-        <f>ROUND(E42*100/E$54,1)</f>
+      <c r="O45" s="1">
+        <f>ROUND(E42*100/E$53,1)</f>
         <v>1.6</v>
       </c>
-      <c r="N45" s="1">
-        <f>ROUND(F42*100/F$54,1)</f>
+      <c r="P45" s="1">
+        <f>ROUND(F42*100/F$53,1)</f>
         <v>2</v>
       </c>
-      <c r="O45" s="1">
-        <f>ROUND(G42*100/G$54,1)</f>
+      <c r="Q45" s="1">
+        <f>ROUND(G42*100/G$53,1)</f>
         <v>2.8</v>
       </c>
+      <c r="R45" s="1">
+        <f>ROUND(H42*100/H$53,1)</f>
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -4387,34 +5322,38 @@
       <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="J46" s="1" t="str">
-        <f>B43</f>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>Ableton Live</v>
       </c>
-      <c r="K46" s="1">
-        <f>ROUND(C43*100/C$54,1)</f>
-        <v>9.9</v>
-      </c>
-      <c r="L46" s="1">
-        <f>ROUND(D43*100/D$54,1)</f>
+      <c r="M46" s="1">
+        <f>ROUND(C43*100/C$53,1)</f>
+        <v>9.4</v>
+      </c>
+      <c r="N46" s="1">
+        <f>ROUND(D43*100/D$53,1)</f>
         <v>9.5</v>
       </c>
-      <c r="M46" s="1">
-        <f>ROUND(E43*100/E$54,1)</f>
+      <c r="O46" s="1">
+        <f>ROUND(E43*100/E$53,1)</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="N46" s="1">
-        <f>ROUND(F43*100/F$54,1)</f>
+      <c r="P46" s="1">
+        <f>ROUND(F43*100/F$53,1)</f>
         <v>3</v>
       </c>
-      <c r="O46" s="1">
-        <f>ROUND(G43*100/G$54,1)</f>
+      <c r="Q46" s="1">
+        <f>ROUND(G43*100/G$53,1)</f>
         <v>2.8</v>
       </c>
+      <c r="R46" s="1">
+        <f t="shared" ref="R46:R54" si="13">ROUND(H43*100/H$53,1)</f>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -4422,34 +5361,38 @@
       <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="J47" s="1" t="str">
-        <f>B44</f>
+      <c r="L47" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>DJay 2 (ios)</v>
       </c>
-      <c r="K47" s="1">
-        <f>ROUND(C44*100/C$54,1)</f>
-        <v>3.5</v>
-      </c>
-      <c r="L47" s="1">
-        <f>ROUND(D44*100/D$54,1)</f>
+      <c r="M47" s="1">
+        <f>ROUND(C44*100/C$53,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="N47" s="1">
+        <f>ROUND(D44*100/D$53,1)</f>
         <v>4.5</v>
       </c>
-      <c r="M47" s="1">
-        <f>ROUND(E44*100/E$54,1)</f>
+      <c r="O47" s="1">
+        <f>ROUND(E44*100/E$53,1)</f>
         <v>3.3</v>
       </c>
-      <c r="N47" s="1">
-        <f>ROUND(F44*100/F$54,1)</f>
+      <c r="P47" s="1">
+        <f>ROUND(F44*100/F$53,1)</f>
         <v>1</v>
       </c>
-      <c r="O47" s="1">
-        <f>ROUND(G44*100/G$54,1)</f>
-        <v>1.8</v>
+      <c r="Q47" s="1">
+        <f>ROUND(G44*100/G$53,1)</f>
+        <v>1.9</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="13"/>
+        <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -4466,34 +5409,41 @@
       <c r="G48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="1" t="str">
-        <f>B45</f>
+      <c r="H48" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="L48" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>Mixxx</v>
       </c>
-      <c r="K48" s="1">
-        <f>ROUND(C45*100/C$54,1)</f>
+      <c r="M48" s="1">
+        <f>ROUND(C45*100/C$53,1)</f>
         <v>0</v>
       </c>
-      <c r="L48" s="1">
-        <f>ROUND(D45*100/D$54,1)</f>
+      <c r="N48" s="1">
+        <f>ROUND(D45*100/D$53,1)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="M48" s="1">
-        <f>ROUND(E45*100/E$54,1)</f>
+      <c r="O48" s="1">
+        <f>ROUND(E45*100/E$53,1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N48" s="1">
-        <f>ROUND(F45*100/F$54,1)</f>
+      <c r="P48" s="1">
+        <f>ROUND(F45*100/F$53,1)</f>
         <v>1</v>
       </c>
-      <c r="O48" s="1">
-        <f>ROUND(G45*100/G$54,1)</f>
+      <c r="Q48" s="1">
+        <f>ROUND(G45*100/G$53,1)</f>
         <v>0.9</v>
       </c>
+      <c r="R48" s="1">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1">
         <v>10</v>
@@ -4504,204 +5454,397 @@
       <c r="E49" s="1">
         <v>10</v>
       </c>
-      <c r="J49" s="1" t="str">
-        <f>B46</f>
+      <c r="L49" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>DJuced</v>
       </c>
-      <c r="K49" s="1">
-        <f>ROUND(C46*100/C$54,1)</f>
+      <c r="M49" s="1">
+        <f>ROUND(C46*100/C$53,1)</f>
         <v>0</v>
       </c>
-      <c r="L49" s="1">
-        <f>ROUND(D46*100/D$54,1)</f>
+      <c r="N49" s="1">
+        <f>ROUND(D46*100/D$53,1)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="1">
-        <f>ROUND(E46*100/E$54,1)</f>
+      <c r="O49" s="1">
+        <f>ROUND(E46*100/E$53,1)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="1">
-        <f>ROUND(F46*100/F$54,1)</f>
+      <c r="P49" s="1">
+        <f>ROUND(F46*100/F$53,1)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="1">
-        <f>ROUND(G46*100/G$54,1)</f>
+      <c r="Q49" s="1">
+        <f>ROUND(G46*100/G$53,1)</f>
         <v>0.9</v>
       </c>
+      <c r="R49" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
       </c>
-      <c r="J50" s="1" t="str">
-        <f>B47</f>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>Traktor DJ (ios)</v>
       </c>
-      <c r="K50" s="1">
-        <f>ROUND(C47*100/C$54,1)</f>
+      <c r="M50" s="1">
+        <f>ROUND(C47*100/C$53,1)</f>
         <v>0</v>
       </c>
-      <c r="L50" s="1">
-        <f>ROUND(D47*100/D$54,1)</f>
+      <c r="N50" s="1">
+        <f>ROUND(D47*100/D$53,1)</f>
         <v>0</v>
       </c>
-      <c r="M50" s="1">
-        <f>ROUND(E47*100/E$54,1)</f>
+      <c r="O50" s="1">
+        <f>ROUND(E47*100/E$53,1)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="1">
-        <f>ROUND(F47*100/F$54,1)</f>
+      <c r="P50" s="1">
+        <f>ROUND(F47*100/F$53,1)</f>
         <v>1</v>
       </c>
-      <c r="O50" s="1">
-        <f>ROUND(G47*100/G$54,1)</f>
+      <c r="Q50" s="1">
+        <f>ROUND(G47*100/G$53,1)</f>
         <v>0.9</v>
       </c>
+      <c r="R50" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="J51" s="1" t="str">
-        <f>B48</f>
+      <c r="L51" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>Mixvibes</v>
       </c>
-      <c r="K51" s="1">
-        <f>ROUND(C48*100/C$54,1)</f>
-        <v>1.8</v>
-      </c>
-      <c r="L51" s="1">
-        <f>ROUND(D48*100/D$54,1)</f>
+      <c r="M51" s="1">
+        <f>ROUND(C48*100/C$53,1)</f>
         <v>1.7</v>
       </c>
-      <c r="M51" s="1">
-        <f>ROUND(E48*100/E$54,1)</f>
+      <c r="N51" s="1">
+        <f>ROUND(D48*100/D$53,1)</f>
+        <v>1.7</v>
+      </c>
+      <c r="O51" s="1">
+        <f>ROUND(E48*100/E$53,1)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N51" s="1">
-        <f>ROUND(F48*100/F$54,1)</f>
+      <c r="P51" s="1">
+        <f>ROUND(F48*100/F$53,1)</f>
         <v>1</v>
       </c>
-      <c r="O51" s="1">
-        <f>ROUND(G48*100/G$54,1)</f>
+      <c r="Q51" s="1">
+        <f>ROUND(G48*100/G$53,1)</f>
         <v>0.9</v>
       </c>
+      <c r="R51" s="1">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J52" s="1" t="str">
-        <f>B49</f>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>Traktor DJ (PC/Mac)</v>
       </c>
-      <c r="K52" s="1">
-        <f>ROUND(C49*100/C$54,1)</f>
-        <v>5.8</v>
-      </c>
-      <c r="L52" s="1">
-        <f>ROUND(D49*100/D$54,1)</f>
+      <c r="M52" s="1">
+        <f>ROUND(C49*100/C$53,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N52" s="1">
+        <f>ROUND(D49*100/D$53,1)</f>
         <v>5.6</v>
       </c>
-      <c r="M52" s="1">
-        <f>ROUND(E49*100/E$54,1)</f>
+      <c r="O52" s="1">
+        <f>ROUND(E49*100/E$53,1)</f>
         <v>5.4</v>
       </c>
-      <c r="N52" s="1">
-        <f>ROUND(F49*100/F$54,1)</f>
+      <c r="P52" s="1">
+        <f>ROUND(F49*100/F$53,1)</f>
         <v>0</v>
       </c>
-      <c r="O52" s="1">
-        <f>ROUND(G49*100/G$54,1)</f>
+      <c r="Q52" s="1">
+        <f>ROUND(G49*100/G$53,1)</f>
         <v>0</v>
       </c>
+      <c r="R52" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J53" s="1" t="str">
-        <f>B50</f>
-        <v>Serato Scratch / Live</v>
-      </c>
-      <c r="K53" s="1">
-        <f>ROUND(C50*100/C$54,1)</f>
-        <v>5.8</v>
-      </c>
-      <c r="L53" s="1">
-        <f>ROUND(D50*100/D$54,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="1">
-        <f>ROUND(E50*100/E$54,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="1">
-        <f>ROUND(F50*100/F$54,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="1">
-        <f>ROUND(G50*100/G$54,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C53" s="1">
         <f>SUM(C37:C51)</f>
-        <v>171</v>
-      </c>
-      <c r="D54" s="1">
+        <v>181</v>
+      </c>
+      <c r="D53" s="1">
         <f>SUM(D37:D51)</f>
         <v>179</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E53" s="1">
         <f>SUM(E37:E51)</f>
         <v>184.5</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F53" s="1">
         <f>SUM(F37:F51)</f>
         <v>101</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G53" s="1">
         <f>SUM(G37:G51)</f>
-        <v>109</v>
-      </c>
-      <c r="J54" s="1" t="str">
-        <f>B51</f>
+        <v>108</v>
+      </c>
+      <c r="H53" s="1">
+        <f>SUM(H37:H51)</f>
+        <v>98.269999999999982</v>
+      </c>
+      <c r="L53" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>Serato Scratch / Live</v>
+      </c>
+      <c r="M53" s="1">
+        <f>ROUND(C50*100/C$53,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="N53" s="1">
+        <f>ROUND(D50*100/D$53,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <f>ROUND(E50*100/E$53,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <f>ROUND(F50*100/F$53,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <f>ROUND(G50*100/G$53,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L54" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>Djay (mac)</v>
       </c>
-      <c r="K54" s="1">
-        <f>ROUND(C51*100/C$54,1)</f>
-        <v>1.2</v>
-      </c>
-      <c r="L54" s="1">
-        <f>ROUND(D51*100/D$54,1)</f>
+      <c r="M54" s="1">
+        <f>ROUND(C51*100/C$53,1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N54" s="1">
+        <f>ROUND(D51*100/D$53,1)</f>
         <v>0</v>
       </c>
-      <c r="M54" s="1">
-        <f>ROUND(E51*100/E$54,1)</f>
+      <c r="O54" s="1">
+        <f>ROUND(E51*100/E$53,1)</f>
         <v>0</v>
       </c>
-      <c r="N54" s="1">
-        <f>ROUND(F51*100/F$54,1)</f>
+      <c r="P54" s="1">
+        <f>ROUND(F51*100/F$53,1)</f>
         <v>0</v>
       </c>
-      <c r="O54" s="1">
-        <f>ROUND(G51*100/G$54,1)</f>
+      <c r="Q54" s="1">
+        <f>ROUND(G51*100/G$53,1)</f>
         <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3">
+        <f t="shared" ref="D58:H58" si="14">D36</f>
+        <v>2015</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="14"/>
+        <v>2016</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="14"/>
+        <v>2017</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="14"/>
+        <v>2018</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="14"/>
+        <v>2019</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="L58" s="3">
+        <f>B58</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3">
+        <f t="shared" ref="M58:R58" si="15">D58</f>
+        <v>2015</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="15"/>
+        <v>2016</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="15"/>
+        <v>2017</v>
+      </c>
+      <c r="Q58" s="3">
+        <f t="shared" si="15"/>
+        <v>2018</v>
+      </c>
+      <c r="R58" s="3">
+        <f t="shared" si="15"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="1">
+        <v>62</v>
+      </c>
+      <c r="E59" s="1">
+        <v>65</v>
+      </c>
+      <c r="F59" s="1">
+        <v>63</v>
+      </c>
+      <c r="G59" s="1">
+        <v>62</v>
+      </c>
+      <c r="H59" s="1">
+        <v>62</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" ref="N59:N60" si="16">D59</f>
+        <v>62</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" ref="O59:O60" si="17">E59</f>
+        <v>65</v>
+      </c>
+      <c r="P59" s="1">
+        <f>ROUND(F59*100/F$61,1)</f>
+        <v>59.4</v>
+      </c>
+      <c r="Q59" s="1">
+        <f t="shared" ref="Q59:R59" si="18">ROUND(G59*100/G$61,1)</f>
+        <v>58.5</v>
+      </c>
+      <c r="R59" s="1">
+        <f t="shared" si="18"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="1">
+        <v>46</v>
+      </c>
+      <c r="E60" s="1">
+        <v>42</v>
+      </c>
+      <c r="F60" s="1">
+        <v>43</v>
+      </c>
+      <c r="G60" s="1">
+        <v>44</v>
+      </c>
+      <c r="H60" s="1">
+        <v>43</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="17"/>
+        <v>42</v>
+      </c>
+      <c r="P60" s="1">
+        <f>ROUND(F60*100/F$61,1)</f>
+        <v>40.6</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" ref="Q60" si="19">ROUND(G60*100/G$61,1)</f>
+        <v>41.5</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" ref="R60" si="20">ROUND(H60*100/H$61,1)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" ref="D61:H61" si="21">SUM(D59:D60)</f>
+        <v>108</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="21"/>
+        <v>107</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="21"/>
+        <v>106</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="21"/>
+        <v>106</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="21"/>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4711,7 +5854,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4723,7 +5866,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/census_graphs/sources/DigitalDJTips - global census.xlsx
+++ b/census_graphs/sources/DigitalDJTips - global census.xlsx
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Deep House</t>
   </si>
   <si>
     <t>Tech House</t>
@@ -155,13 +152,16 @@
   <si>
     <t>RekordBox</t>
   </si>
+  <si>
+    <t>House / Deep House</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -225,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -238,7 +238,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -304,7 +305,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2920455468328866E-2"/>
+          <c:y val="0.10423514546524557"/>
+          <c:w val="0.68238246062126262"/>
+          <c:h val="0.82094011475243878"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -327,10 +338,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -348,16 +359,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$13:$R$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$13:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>11.9</c:v>
                 </c:pt>
@@ -375,6 +389,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,10 +417,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -421,16 +438,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$14:$R$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -448,6 +468,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,10 +496,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -494,16 +517,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$15:$R$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$15:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>6.2</c:v>
                 </c:pt>
@@ -521,6 +547,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +565,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deep House</c:v>
+                  <c:v>House / Deep House</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -546,10 +575,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -567,16 +596,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$16:$R$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>13.3</c:v>
                 </c:pt>
@@ -594,6 +626,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,10 +654,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -640,16 +675,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$17:$R$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$17:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10.5</c:v>
                 </c:pt>
@@ -667,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,10 +733,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$12:$R$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -713,16 +754,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$18:$R$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$18:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.9</c:v>
                 </c:pt>
@@ -740,6 +784,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -756,11 +803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217052672"/>
-        <c:axId val="216867392"/>
+        <c:axId val="197478912"/>
+        <c:axId val="197608576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217052672"/>
+        <c:axId val="197478912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216867392"/>
+        <c:crossAx val="197608576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -778,7 +825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216867392"/>
+        <c:axId val="197608576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -790,14 +837,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217052672"/>
+        <c:crossAx val="197478912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78087781376946319"/>
+          <c:y val="0.39660854833838316"/>
+          <c:w val="0.20873892111062237"/>
+          <c:h val="0.2894052473259926"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1602,11 +1658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217874432"/>
-        <c:axId val="216869696"/>
+        <c:axId val="197386752"/>
+        <c:axId val="197610880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217874432"/>
+        <c:axId val="197386752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216869696"/>
+        <c:crossAx val="197610880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1624,7 +1680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216869696"/>
+        <c:axId val="197610880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217874432"/>
+        <c:crossAx val="197386752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1713,6 +1769,401 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serato DJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$37:$S$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RekordBox</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$38:$S$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traktor Pro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$39:$S$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Virtual DJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$40:$S$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$41:$S$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -1757,6 +2208,10 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1767,10 +2222,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$36:$R$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1788,16 +2243,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$37:$R$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$37:$S$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>25.4</c:v>
                 </c:pt>
@@ -1814,6 +2272,9 @@
                   <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>33.9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1843,8 +2304,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.118791255551038E-2"/>
-                  <c:y val="-6.3572638481942667E-2"/>
+                  <c:x val="-6.614333343969829E-2"/>
+                  <c:y val="-4.7775342757697306E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -1871,6 +2332,10 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1881,10 +2346,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$36:$R$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -1902,16 +2367,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$38:$R$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$38:$S$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1929,6 +2397,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,8 +2439,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.245024234291864E-16"/>
-                  <c:y val="-1.5825558318220922E-2"/>
+                  <c:x val="0.1266165517690111"/>
+                  <c:y val="6.5939826325920103E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1988,10 +2459,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$36:$R$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2009,16 +2480,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$39:$R$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$39:$S$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2036,6 +2510,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,8 +2552,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.245024234291864E-16"/>
-                  <c:y val="5.2751861060736085E-3"/>
+                  <c:x val="0.12161852998865541"/>
+                  <c:y val="9.759094296236176E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2095,10 +2572,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$36:$R$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2116,16 +2593,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$40:$R$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$40:$S$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>15.5</c:v>
                 </c:pt>
@@ -2143,6 +2623,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,8 +2654,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.6977799321609918E-3"/>
-                  <c:y val="-3.1651116636441746E-2"/>
+                  <c:x val="-4.8780865642129412E-2"/>
+                  <c:y val="-3.6916848567573123E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2198,6 +2681,10 @@
               <c:idx val="4"/>
               <c:delete val="1"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2208,10 +2695,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$36:$R$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$36:$S$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2014</c:v>
                 </c:pt>
@@ -2229,16 +2716,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$41:$R$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>Sheet1!$M$41:$S$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.5</c:v>
                 </c:pt>
@@ -2256,6 +2746,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,11 +2765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217874944"/>
-        <c:axId val="216872000"/>
+        <c:axId val="223155712"/>
+        <c:axId val="212843840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217874944"/>
+        <c:axId val="223155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216872000"/>
+        <c:crossAx val="212843840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2294,7 +2787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216872000"/>
+        <c:axId val="212843840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217874944"/>
+        <c:crossAx val="223155712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3112,11 +3605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217876480"/>
-        <c:axId val="216874304"/>
+        <c:axId val="197389312"/>
+        <c:axId val="198828032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217876480"/>
+        <c:axId val="197389312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,7 +3619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216874304"/>
+        <c:crossAx val="198828032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3134,7 +3627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="216874304"/>
+        <c:axId val="198828032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,7 +3638,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217876480"/>
+        <c:crossAx val="197389312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3235,6 +3728,22 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9849136285868904E-2"/>
+                  <c:y val="-6.7910126475269547E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -3244,36 +3753,12 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$N$21:$R$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$59:$R$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$59:$R$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>62</c:v>
                 </c:pt>
@@ -3288,6 +3773,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,45 +3800,225 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:dLblPos val="t"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.621545527681966E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>MAC, </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>46</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3035847925396151E-17"/>
+                  <c:y val="-3.1995315191644509E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>MAC, </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>42</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4059284731813447E-3"/>
+                  <c:y val="-5.6880560340700992E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>MAC, </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>40.6</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8019761577271151E-3"/>
+                  <c:y val="-4.2660420255525841E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>MAC, </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>41.5</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8019761577272471E-3"/>
+                  <c:y val="-5.3325525319407298E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>MAC, </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>41</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4237546996815187E-2"/>
+                  <c:y val="-6.0435595361994943E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>MAC, </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>43.4</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$N$21:$R$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$60:$R$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>Sheet1!$M$60:$R$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>46</c:v>
                 </c:pt>
@@ -3365,6 +4033,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3381,11 +4052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232042496"/>
-        <c:axId val="44473088"/>
+        <c:axId val="197387264"/>
+        <c:axId val="198830336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232042496"/>
+        <c:axId val="197387264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3395,7 +4066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44473088"/>
+        <c:crossAx val="198830336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3403,7 +4074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44473088"/>
+        <c:axId val="198830336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35"/>
@@ -3415,7 +4086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232042496"/>
+        <c:crossAx val="197387264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3436,16 +4107,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>141366</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>178776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>358329</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>8963</xdr:rowOff>
+      <xdr:rowOff>111540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3466,16 +4137,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>125505</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74217</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>116540</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>65251</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>58269</xdr:rowOff>
+      <xdr:rowOff>160846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3497,15 +4168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>103092</xdr:rowOff>
+      <xdr:colOff>421945</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>329711</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3556,16 +4227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>387507</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>186952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>494499</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>7328</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>378543</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3876,10 +4547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R61"/>
+  <dimension ref="A2:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58:R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,15 +4562,15 @@
     <col min="13" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -3907,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2017</v>
       </c>
@@ -3915,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2016</v>
       </c>
@@ -3923,7 +4594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
@@ -3931,7 +4602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2014</v>
       </c>
@@ -3939,12 +4610,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="M9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
@@ -3972,15 +4643,18 @@
       <c r="R12" s="1">
         <v>2019</v>
       </c>
+      <c r="S12" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="L13" s="1" t="str">
         <f t="shared" ref="L13:L18" si="0">B16</f>
         <v>HipHop / R&amp;B</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" ref="M13:R18" si="1">ROUND(C16*100/C$33,1)</f>
+        <f t="shared" ref="M13:S28" si="1">ROUND(C16*100/C$33,1)</f>
         <v>11.9</v>
       </c>
       <c r="N13" s="1">
@@ -4003,8 +4677,12 @@
         <f t="shared" si="1"/>
         <v>15.1</v>
       </c>
+      <c r="S13" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>EDM / Big room house</v>
@@ -4033,8 +4711,12 @@
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
+      <c r="S14" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3">
         <v>2014</v>
@@ -4051,8 +4733,11 @@
       <c r="G15" s="3">
         <v>2018</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="11">
         <v>2019</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2020</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4082,10 +4767,14 @@
         <f t="shared" si="1"/>
         <v>12.6</v>
       </c>
+      <c r="S15" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999993</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>42</v>
@@ -4106,9 +4795,12 @@
       <c r="H16" s="1">
         <v>15.11</v>
       </c>
+      <c r="I16" s="1">
+        <v>13.76</v>
+      </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Deep House</v>
+        <v>House / Deep House</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
@@ -4134,10 +4826,14 @@
         <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
+      <c r="S16" s="1">
+        <f t="shared" si="1"/>
+        <v>19.600000000000001</v>
+      </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>50</v>
@@ -4158,6 +4854,9 @@
       <c r="H17" s="1">
         <v>12.54</v>
       </c>
+      <c r="I17" s="1">
+        <v>9.1300000000000008</v>
+      </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Tech House</v>
@@ -4186,8 +4885,12 @@
         <f t="shared" si="1"/>
         <v>9.6999999999999993</v>
       </c>
+      <c r="S17" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -4210,6 +4913,9 @@
       <c r="H18" s="1">
         <v>12.59</v>
       </c>
+      <c r="I18" s="1">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Techno</v>
@@ -4238,10 +4944,14 @@
         <f t="shared" si="1"/>
         <v>8.4</v>
       </c>
+      <c r="S18" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>47</v>
@@ -4261,10 +4971,13 @@
       <c r="H19" s="1">
         <v>8.8000000000000007</v>
       </c>
+      <c r="I19" s="1">
+        <v>17.97</v>
+      </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
         <v>37</v>
@@ -4285,10 +4998,13 @@
       <c r="H20" s="1">
         <v>9.6999999999999993</v>
       </c>
+      <c r="I20" s="1">
+        <v>8.68</v>
+      </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
         <v>28</v>
@@ -4309,6 +5025,9 @@
       <c r="H21" s="1">
         <v>8.42</v>
       </c>
+      <c r="I21" s="1">
+        <v>7.09</v>
+      </c>
       <c r="M21" s="1">
         <v>2014</v>
       </c>
@@ -4327,10 +5046,14 @@
       <c r="R21" s="1">
         <v>2019</v>
       </c>
+      <c r="S21" s="1">
+        <f>S12</f>
+        <v>2020</v>
+      </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1">
         <v>28</v>
@@ -4349,6 +5072,9 @@
       </c>
       <c r="H22" s="1">
         <v>7.7</v>
+      </c>
+      <c r="I22" s="1">
+        <v>6.98</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" ref="L22:L40" si="2">B22</f>
@@ -4378,10 +5104,14 @@
         <f t="shared" si="7"/>
         <v>7.7</v>
       </c>
+      <c r="S22" s="1">
+        <f>ROUND(I22*100/I$33,1)</f>
+        <v>7.6</v>
+      </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1">
         <v>36</v>
@@ -4400,6 +5130,9 @@
       </c>
       <c r="H23" s="1">
         <v>7.8</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5.16</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4429,10 +5162,14 @@
         <f t="shared" si="7"/>
         <v>7.8</v>
       </c>
+      <c r="S23" s="1">
+        <f>ROUND(I23*100/I$33,1)</f>
+        <v>5.6</v>
+      </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ref="F24:F31" si="8">G24</f>
@@ -4444,6 +5181,9 @@
       <c r="H24" s="1">
         <v>4.51</v>
       </c>
+      <c r="I24" s="1">
+        <v>3.02</v>
+      </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Disco</v>
@@ -4472,10 +5212,14 @@
         <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
+      <c r="S24" s="1">
+        <f>ROUND(I24*100/I$33,1)</f>
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1">
         <v>18.5</v>
@@ -4496,6 +5240,9 @@
       <c r="H25" s="1">
         <v>3.75</v>
       </c>
+      <c r="I25" s="1">
+        <v>3.02</v>
+      </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Trance</v>
@@ -4524,10 +5271,14 @@
         <f t="shared" si="7"/>
         <v>3.7</v>
       </c>
+      <c r="S25" s="1">
+        <f>ROUND(I25*100/I$33,1)</f>
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1">
         <v>12</v>
@@ -4548,6 +5299,9 @@
       <c r="H26" s="1">
         <v>3.19</v>
       </c>
+      <c r="I26" s="1">
+        <v>2.61</v>
+      </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Latin / Reggaeton</v>
@@ -4576,10 +5330,14 @@
         <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
+      <c r="S26" s="1">
+        <f>ROUND(I26*100/I$33,1)</f>
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1">
         <v>12</v>
@@ -4600,6 +5358,9 @@
       <c r="H27" s="1">
         <v>1.82</v>
       </c>
+      <c r="I27" s="1">
+        <v>2.13</v>
+      </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Soca / Reggae</v>
@@ -4628,10 +5389,14 @@
         <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
+      <c r="S27" s="1">
+        <f>ROUND(I27*100/I$33,1)</f>
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="8"/>
@@ -4643,6 +5408,9 @@
       <c r="H28" s="1">
         <v>0.92</v>
       </c>
+      <c r="I28" s="1">
+        <v>0.85</v>
+      </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Trap</v>
@@ -4671,10 +5439,14 @@
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
+      <c r="S28" s="1">
+        <f>ROUND(I28*100/I$33,1)</f>
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="8"/>
@@ -4686,6 +5458,9 @@
       <c r="H29" s="1">
         <v>1.56</v>
       </c>
+      <c r="I29" s="1">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Funk</v>
@@ -4714,10 +5489,14 @@
         <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
+      <c r="S29" s="1">
+        <f>ROUND(I29*100/I$33,1)</f>
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>20</v>
@@ -4735,6 +5514,9 @@
       <c r="H30" s="1">
         <v>0.71</v>
       </c>
+      <c r="I30" s="1">
+        <v>0.63</v>
+      </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Downtempo / Lounge / Chillout</v>
@@ -4763,10 +5545,14 @@
         <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
+      <c r="S30" s="1">
+        <f>ROUND(I30*100/I$33,1)</f>
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="8"/>
@@ -4778,6 +5564,9 @@
       <c r="H31" s="1">
         <v>0.89</v>
       </c>
+      <c r="I31" s="1">
+        <v>0.59</v>
+      </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Indie dance</v>
@@ -4806,41 +5595,49 @@
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
+      <c r="S31" s="1">
+        <f>ROUND(I31*100/I$33,1)</f>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1">
-        <f>SUM(C16:C31)</f>
+        <f t="shared" ref="C33:I33" si="9">SUM(C16:C31)</f>
         <v>352.5</v>
       </c>
       <c r="D33" s="1">
-        <f>SUM(D16:D31)</f>
+        <f t="shared" si="9"/>
         <v>352</v>
       </c>
       <c r="E33" s="1">
-        <f>SUM(E16:E31)</f>
+        <f t="shared" si="9"/>
         <v>274</v>
       </c>
       <c r="F33" s="1">
-        <f>SUM(F16:F31)</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="G33" s="1">
-        <f>SUM(G16:G31)</f>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="H33" s="1">
-        <f>SUM(H16:H31)</f>
+        <f t="shared" si="9"/>
         <v>100.00999999999999</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="9"/>
+        <v>91.629999999999981</v>
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="2"/>
         <v>sum</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -4848,34 +5645,37 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3">
-        <f>C15</f>
+        <f t="shared" ref="C36:H36" si="10">C15</f>
         <v>2014</v>
       </c>
       <c r="D36" s="3">
-        <f>D15</f>
+        <f t="shared" si="10"/>
         <v>2015</v>
       </c>
       <c r="E36" s="3">
-        <f>E15</f>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="F36" s="3">
-        <f>F15</f>
+        <f t="shared" si="10"/>
         <v>2017</v>
       </c>
       <c r="G36" s="3">
-        <f>G15</f>
+        <f t="shared" si="10"/>
         <v>2018</v>
       </c>
-      <c r="H36" s="7">
-        <f>H15</f>
+      <c r="H36" s="11">
+        <f t="shared" si="10"/>
         <v>2019</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>38</v>
+      <c r="I36" s="3">
+        <v>2020</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3">
@@ -4883,29 +5683,32 @@
         <v>2014</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" ref="N36:Q36" si="9">D36</f>
+        <f t="shared" ref="N36:Q36" si="11">D36</f>
         <v>2015</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2016</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2017</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2018</v>
       </c>
       <c r="R36" s="7">
         <f>R21</f>
         <v>2019</v>
       </c>
+      <c r="S36" s="1">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1">
         <f>36+10</f>
@@ -4926,42 +5729,49 @@
       <c r="H37" s="1">
         <v>33.35</v>
       </c>
-      <c r="I37" s="10">
-        <f>(H37-G37)*100/G37</f>
-        <v>-4.71428571428571</v>
+      <c r="I37" s="1">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J37" s="10">
+        <f>(I37-H37)*100/H37</f>
+        <v>-0.44977511244377383</v>
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Serato DJ</v>
       </c>
       <c r="M37" s="1">
-        <f>ROUND(C37*100/C$53,1)</f>
+        <f t="shared" ref="M37:S52" si="12">ROUND(C37*100/C$53,1)</f>
         <v>25.4</v>
       </c>
       <c r="N37" s="1">
-        <f>ROUND(D37*100/D$53,1)</f>
+        <f t="shared" si="12"/>
         <v>24.6</v>
       </c>
       <c r="O37" s="1">
-        <f>ROUND(E37*100/E$53,1)</f>
+        <f t="shared" si="12"/>
         <v>24.9</v>
       </c>
       <c r="P37" s="1">
-        <f>ROUND(F37*100/F$53,1)</f>
+        <f t="shared" si="12"/>
         <v>34.700000000000003</v>
       </c>
       <c r="Q37" s="1">
-        <f>ROUND(G37*100/G$53,1)</f>
+        <f t="shared" si="12"/>
         <v>32.4</v>
       </c>
       <c r="R37" s="1">
-        <f>ROUND(H37*100/H$53,1)</f>
+        <f t="shared" si="12"/>
         <v>33.9</v>
       </c>
+      <c r="S37" s="1">
+        <f t="shared" si="12"/>
+        <v>33.9</v>
+      </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -4981,42 +5791,49 @@
       <c r="H38" s="1">
         <v>23.65</v>
       </c>
-      <c r="I38" s="10">
-        <f>(H38-G38)*100/G38</f>
-        <v>12.619047619047613</v>
+      <c r="I38" s="1">
+        <v>30.85</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" ref="J38:J41" si="13">(I38-H38)*100/H38</f>
+        <v>30.443974630021152</v>
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="2"/>
         <v>RekordBox</v>
       </c>
       <c r="M38" s="1">
-        <f>ROUND(C38*100/C$53,1)</f>
+        <f t="shared" ref="M38:Q41" si="14">ROUND(C38*100/C$53,1)</f>
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <f>ROUND(D38*100/D$53,1)</f>
+        <f t="shared" si="14"/>
         <v>7.3</v>
       </c>
       <c r="O38" s="1">
-        <f>ROUND(E38*100/E$53,1)</f>
+        <f t="shared" si="14"/>
         <v>11.1</v>
       </c>
       <c r="P38" s="1">
-        <f>ROUND(F38*100/F$53,1)</f>
+        <f t="shared" si="14"/>
         <v>14.9</v>
       </c>
       <c r="Q38" s="1">
-        <f>ROUND(G38*100/G$53,1)</f>
+        <f t="shared" si="14"/>
         <v>19.399999999999999</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" ref="R38:R41" si="10">ROUND(H38*100/H$53,1)</f>
+        <f t="shared" ref="R38:R41" si="15">ROUND(H38*100/H$53,1)</f>
         <v>24.1</v>
       </c>
+      <c r="S38" s="1">
+        <f t="shared" si="12"/>
+        <v>31.5</v>
+      </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
         <v>47</v>
@@ -5036,42 +5853,49 @@
       <c r="H39" s="1">
         <v>16.41</v>
       </c>
-      <c r="I39" s="10">
-        <f t="shared" ref="I39:I41" si="11">(H39-G39)*100/G39</f>
-        <v>-13.631578947368421</v>
+      <c r="I39" s="1">
+        <v>12.94</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="13"/>
+        <v>-21.145642900670325</v>
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Traktor Pro</v>
       </c>
       <c r="M39" s="1">
-        <f>ROUND(C39*100/C$53,1)</f>
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="N39" s="1">
-        <f>ROUND(D39*100/D$53,1)</f>
+        <f t="shared" si="14"/>
         <v>21.2</v>
       </c>
       <c r="O39" s="1">
-        <f>ROUND(E39*100/E$53,1)</f>
+        <f t="shared" si="14"/>
         <v>20.6</v>
       </c>
       <c r="P39" s="1">
-        <f>ROUND(F39*100/F$53,1)</f>
+        <f t="shared" si="14"/>
         <v>21.8</v>
       </c>
       <c r="Q39" s="1">
-        <f>ROUND(G39*100/G$53,1)</f>
+        <f t="shared" si="14"/>
         <v>17.600000000000001</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>16.7</v>
       </c>
+      <c r="S39" s="1">
+        <f t="shared" si="12"/>
+        <v>13.2</v>
+      </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
         <v>28</v>
@@ -5091,40 +5915,47 @@
       <c r="H40" s="1">
         <v>15.88</v>
       </c>
-      <c r="I40" s="10">
-        <f t="shared" si="11"/>
-        <v>5.8666666666666725</v>
+      <c r="I40" s="1">
+        <v>12.24</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="13"/>
+        <v>-22.921914357682621</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Virtual DJ</v>
       </c>
       <c r="M40" s="1">
-        <f>ROUND(C40*100/C$53,1)</f>
+        <f t="shared" si="14"/>
         <v>15.5</v>
       </c>
       <c r="N40" s="1">
-        <f>ROUND(D40*100/D$53,1)</f>
+        <f t="shared" si="14"/>
         <v>16.8</v>
       </c>
       <c r="O40" s="1">
-        <f>ROUND(E40*100/E$53,1)</f>
+        <f t="shared" si="14"/>
         <v>17.3</v>
       </c>
       <c r="P40" s="1">
-        <f>ROUND(F40*100/F$53,1)</f>
+        <f t="shared" si="14"/>
         <v>18.8</v>
       </c>
       <c r="Q40" s="1">
-        <f>ROUND(G40*100/G$53,1)</f>
+        <f t="shared" si="14"/>
         <v>13.9</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>16.2</v>
       </c>
+      <c r="S40" s="1">
+        <f t="shared" si="12"/>
+        <v>12.5</v>
+      </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
@@ -5143,42 +5974,49 @@
       <c r="H41" s="1">
         <v>3.88</v>
       </c>
-      <c r="I41" s="10">
-        <f t="shared" si="11"/>
-        <v>-35.333333333333336</v>
+      <c r="I41" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="13"/>
+        <v>-10.05154639175257</v>
       </c>
       <c r="L41" s="1" t="str">
         <f>B41</f>
         <v>Other</v>
       </c>
       <c r="M41" s="1">
-        <f>ROUND(C41*100/C$53,1)</f>
+        <f t="shared" si="14"/>
         <v>5.5</v>
       </c>
       <c r="N41" s="1">
-        <f>ROUND(D41*100/D$53,1)</f>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="O41" s="1">
-        <f>ROUND(E41*100/E$53,1)</f>
+        <f t="shared" si="14"/>
         <v>4.3</v>
       </c>
       <c r="P41" s="1">
-        <f>ROUND(F41*100/F$53,1)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <f>ROUND(G41*100/G$53,1)</f>
+        <f t="shared" si="14"/>
         <v>5.6</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.9</v>
       </c>
+      <c r="S41" s="1">
+        <f>ROUND(I41*100/I$53,1)</f>
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -5198,10 +6036,17 @@
       <c r="H42" s="1">
         <v>1.57</v>
       </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
         <v>17</v>
@@ -5221,10 +6066,13 @@
       <c r="H43" s="1">
         <v>1.48</v>
       </c>
+      <c r="I43" s="1">
+        <v>1.1599999999999999</v>
+      </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1">
         <v>6</v>
@@ -5263,10 +6111,14 @@
         <f>R36</f>
         <v>2019</v>
       </c>
+      <c r="S44" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -5283,38 +6135,45 @@
       <c r="H45" s="1">
         <v>0.49</v>
       </c>
+      <c r="I45" s="1">
+        <v>0.43</v>
+      </c>
       <c r="L45" s="1" t="str">
-        <f t="shared" ref="L45:L54" si="12">B42</f>
+        <f t="shared" ref="L45:L54" si="16">B42</f>
         <v>DJay Pro (mac)</v>
       </c>
       <c r="M45" s="1">
-        <f>ROUND(C42*100/C$53,1)</f>
+        <f t="shared" ref="M45:R45" si="17">ROUND(C42*100/C$53,1)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="N45" s="1">
-        <f>ROUND(D42*100/D$53,1)</f>
+        <f t="shared" si="17"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="O45" s="1">
-        <f>ROUND(E42*100/E$53,1)</f>
+        <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
       <c r="P45" s="1">
-        <f>ROUND(F42*100/F$53,1)</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="Q45" s="1">
-        <f>ROUND(G42*100/G$53,1)</f>
+        <f t="shared" si="17"/>
         <v>2.8</v>
       </c>
       <c r="R45" s="1">
-        <f>ROUND(H42*100/H$53,1)</f>
+        <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
+      <c r="S45" s="1">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -5322,38 +6181,45 @@
       <c r="G46" s="1">
         <v>1</v>
       </c>
+      <c r="I46" s="1">
+        <v>0.59</v>
+      </c>
       <c r="L46" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Ableton Live</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" ref="M46:M54" si="18">ROUND(C43*100/C$53,1)</f>
+        <v>9.4</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" ref="N46:N54" si="19">ROUND(D43*100/D$53,1)</f>
+        <v>9.5</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" ref="O46:O54" si="20">ROUND(E43*100/E$53,1)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" ref="P46:P54" si="21">ROUND(F43*100/F$53,1)</f>
+        <v>3</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" ref="Q46:Q54" si="22">ROUND(G43*100/G$53,1)</f>
+        <v>2.8</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" ref="R46:R54" si="23">ROUND(H43*100/H$53,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="S46" s="1">
         <f t="shared" si="12"/>
-        <v>Ableton Live</v>
-      </c>
-      <c r="M46" s="1">
-        <f>ROUND(C43*100/C$53,1)</f>
-        <v>9.4</v>
-      </c>
-      <c r="N46" s="1">
-        <f>ROUND(D43*100/D$53,1)</f>
-        <v>9.5</v>
-      </c>
-      <c r="O46" s="1">
-        <f>ROUND(E43*100/E$53,1)</f>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P46" s="1">
-        <f>ROUND(F43*100/F$53,1)</f>
-        <v>3</v>
-      </c>
-      <c r="Q46" s="1">
-        <f>ROUND(G43*100/G$53,1)</f>
-        <v>2.8</v>
-      </c>
-      <c r="R46" s="1">
-        <f t="shared" ref="R46:R54" si="13">ROUND(H43*100/H$53,1)</f>
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -5361,38 +6227,45 @@
       <c r="G47" s="1">
         <v>1</v>
       </c>
+      <c r="I47" s="1">
+        <v>0.69</v>
+      </c>
       <c r="L47" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>DJay 2 (ios)</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="18"/>
+        <v>3.3</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="20"/>
+        <v>3.3</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="22"/>
+        <v>1.9</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="23"/>
+        <v>1.2</v>
+      </c>
+      <c r="S47" s="1">
         <f t="shared" si="12"/>
-        <v>DJay 2 (ios)</v>
-      </c>
-      <c r="M47" s="1">
-        <f>ROUND(C44*100/C$53,1)</f>
-        <v>3.3</v>
-      </c>
-      <c r="N47" s="1">
-        <f>ROUND(D44*100/D$53,1)</f>
-        <v>4.5</v>
-      </c>
-      <c r="O47" s="1">
-        <f>ROUND(E44*100/E$53,1)</f>
-        <v>3.3</v>
-      </c>
-      <c r="P47" s="1">
-        <f>ROUND(F44*100/F$53,1)</f>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="1">
-        <f>ROUND(G44*100/G$53,1)</f>
-        <v>1.9</v>
-      </c>
-      <c r="R47" s="1">
-        <f t="shared" si="13"/>
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -5412,38 +6285,45 @@
       <c r="H48" s="1">
         <v>0.38</v>
       </c>
+      <c r="I48" s="1">
+        <v>0.26</v>
+      </c>
       <c r="L48" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Mixxx</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="19"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="20"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="S48" s="1">
         <f t="shared" si="12"/>
-        <v>Mixxx</v>
-      </c>
-      <c r="M48" s="1">
-        <f>ROUND(C45*100/C$53,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="1">
-        <f>ROUND(D45*100/D$53,1)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O48" s="1">
-        <f>ROUND(E45*100/E$53,1)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P48" s="1">
-        <f>ROUND(F45*100/F$53,1)</f>
-        <v>1</v>
-      </c>
-      <c r="Q48" s="1">
-        <f>ROUND(G45*100/G$53,1)</f>
-        <v>0.9</v>
-      </c>
-      <c r="R48" s="1">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="1">
         <v>10</v>
@@ -5455,276 +6335,305 @@
         <v>10</v>
       </c>
       <c r="L49" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>DJuced</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
         <f t="shared" si="12"/>
-        <v>DJuced</v>
-      </c>
-      <c r="M49" s="1">
-        <f>ROUND(C46*100/C$53,1)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="1">
-        <f>ROUND(D46*100/D$53,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="1">
-        <f>ROUND(E46*100/E$53,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="1">
-        <f>ROUND(F46*100/F$53,1)</f>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="1">
-        <f>ROUND(G46*100/G$53,1)</f>
-        <v>0.9</v>
-      </c>
-      <c r="R49" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1">
         <v>10</v>
       </c>
       <c r="L50" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Traktor DJ (ios)</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
         <f t="shared" si="12"/>
-        <v>Traktor DJ (ios)</v>
-      </c>
-      <c r="M50" s="1">
-        <f>ROUND(C47*100/C$53,1)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="1">
-        <f>ROUND(D47*100/D$53,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="1">
-        <f>ROUND(E47*100/E$53,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="1">
-        <f>ROUND(F47*100/F$53,1)</f>
-        <v>1</v>
-      </c>
-      <c r="Q50" s="1">
-        <f>ROUND(G47*100/G$53,1)</f>
-        <v>0.9</v>
-      </c>
-      <c r="R50" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="L51" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Mixvibes</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="18"/>
+        <v>1.7</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="19"/>
+        <v>1.7</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="20"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="S51" s="1">
         <f t="shared" si="12"/>
-        <v>Mixvibes</v>
-      </c>
-      <c r="M51" s="1">
-        <f>ROUND(C48*100/C$53,1)</f>
-        <v>1.7</v>
-      </c>
-      <c r="N51" s="1">
-        <f>ROUND(D48*100/D$53,1)</f>
-        <v>1.7</v>
-      </c>
-      <c r="O51" s="1">
-        <f>ROUND(E48*100/E$53,1)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P51" s="1">
-        <f>ROUND(F48*100/F$53,1)</f>
-        <v>1</v>
-      </c>
-      <c r="Q51" s="1">
-        <f>ROUND(G48*100/G$53,1)</f>
-        <v>0.9</v>
-      </c>
-      <c r="R51" s="1">
-        <f t="shared" si="13"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L52" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Traktor DJ (PC/Mac)</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="18"/>
+        <v>5.5</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="19"/>
+        <v>5.6</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="20"/>
+        <v>5.4</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
         <f t="shared" si="12"/>
-        <v>Traktor DJ (PC/Mac)</v>
-      </c>
-      <c r="M52" s="1">
-        <f>ROUND(C49*100/C$53,1)</f>
-        <v>5.5</v>
-      </c>
-      <c r="N52" s="1">
-        <f>ROUND(D49*100/D$53,1)</f>
-        <v>5.6</v>
-      </c>
-      <c r="O52" s="1">
-        <f>ROUND(E49*100/E$53,1)</f>
-        <v>5.4</v>
-      </c>
-      <c r="P52" s="1">
-        <f>ROUND(F49*100/F$53,1)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="1">
-        <f>ROUND(G49*100/G$53,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R52" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <f>SUM(C37:C51)</f>
+        <f t="shared" ref="C53:I53" si="24">SUM(C37:C51)</f>
         <v>181</v>
       </c>
       <c r="D53" s="1">
-        <f>SUM(D37:D51)</f>
+        <f t="shared" si="24"/>
         <v>179</v>
       </c>
       <c r="E53" s="1">
-        <f>SUM(E37:E51)</f>
+        <f t="shared" si="24"/>
         <v>184.5</v>
       </c>
       <c r="F53" s="1">
-        <f>SUM(F37:F51)</f>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="G53" s="1">
-        <f>SUM(G37:G51)</f>
+        <f t="shared" si="24"/>
         <v>108</v>
       </c>
       <c r="H53" s="1">
-        <f>SUM(H37:H51)</f>
+        <f t="shared" si="24"/>
         <v>98.269999999999982</v>
       </c>
+      <c r="I53" s="1">
+        <f t="shared" si="24"/>
+        <v>97.850000000000009</v>
+      </c>
       <c r="L53" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Serato Scratch / Live</v>
       </c>
       <c r="M53" s="1">
-        <f>ROUND(C50*100/C$53,1)</f>
+        <f t="shared" si="18"/>
         <v>5.5</v>
       </c>
       <c r="N53" s="1">
-        <f>ROUND(D50*100/D$53,1)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O53" s="1">
-        <f>ROUND(E50*100/E$53,1)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <f>ROUND(F50*100/F$53,1)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <f>ROUND(G50*100/G$53,1)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L54" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>Djay (mac)</v>
       </c>
       <c r="M54" s="1">
-        <f>ROUND(C51*100/C$53,1)</f>
+        <f t="shared" si="18"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="N54" s="1">
-        <f>ROUND(D51*100/D$53,1)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O54" s="1">
-        <f>ROUND(E51*100/E$53,1)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f>ROUND(F51*100/F$53,1)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <f>ROUND(G51*100/G$53,1)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
+      <c r="S54" s="1">
+        <f t="shared" ref="S54" si="25">ROUND(I54*100/I$53,1)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:H58" si="14">D36</f>
+        <f t="shared" ref="D58:H58" si="26">D36</f>
         <v>2015</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2016</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2017</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2018</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2019</v>
       </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3">
+        <v>2020</v>
+      </c>
       <c r="L58" s="3">
         <f>B58</f>
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="M58" s="3">
+        <f>D58</f>
+        <v>2015</v>
+      </c>
       <c r="N58" s="3">
-        <f t="shared" ref="M58:R58" si="15">D58</f>
-        <v>2015</v>
+        <f>E58</f>
+        <v>2016</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="15"/>
-        <v>2016</v>
+        <f>F58</f>
+        <v>2017</v>
       </c>
       <c r="P58" s="3">
-        <f t="shared" si="15"/>
-        <v>2017</v>
+        <f>G58</f>
+        <v>2018</v>
       </c>
       <c r="Q58" s="3">
-        <f t="shared" si="15"/>
-        <v>2018</v>
-      </c>
-      <c r="R58" s="3">
-        <f t="shared" si="15"/>
+        <f>H58</f>
         <v>2019</v>
       </c>
+      <c r="R58" s="7">
+        <f>I58</f>
+        <v>2020</v>
+      </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" s="1">
         <v>62</v>
@@ -5741,33 +6650,40 @@
       <c r="H59" s="1">
         <v>62</v>
       </c>
+      <c r="I59" s="1">
+        <v>60.13</v>
+      </c>
       <c r="L59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="M59" s="1">
+        <f>D59</f>
+        <v>62</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" ref="N59:N60" si="16">D59</f>
-        <v>62</v>
+        <f>E59</f>
+        <v>65</v>
       </c>
       <c r="O59" s="1">
-        <f t="shared" ref="O59:O60" si="17">E59</f>
-        <v>65</v>
-      </c>
-      <c r="P59" s="1">
         <f>ROUND(F59*100/F$61,1)</f>
         <v>59.4</v>
       </c>
+      <c r="P59" s="1">
+        <f>ROUND(G59*100/G$61,1)</f>
+        <v>58.5</v>
+      </c>
       <c r="Q59" s="1">
-        <f t="shared" ref="Q59:R59" si="18">ROUND(G59*100/G$61,1)</f>
-        <v>58.5</v>
+        <f>ROUND(H59*100/H$61,1)</f>
+        <v>59</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="18"/>
-        <v>59</v>
+        <f>ROUND(I59*100/I$61,1)</f>
+        <v>56.6</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60" s="1">
         <v>46</v>
@@ -5784,53 +6700,64 @@
       <c r="H60" s="1">
         <v>43</v>
       </c>
+      <c r="I60" s="1">
+        <v>46.19</v>
+      </c>
       <c r="L60" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="M60" s="1">
+        <f>D60</f>
+        <v>46</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="16"/>
-        <v>46</v>
+        <f>E60</f>
+        <v>42</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="17"/>
-        <v>42</v>
-      </c>
-      <c r="P60" s="1">
         <f>ROUND(F60*100/F$61,1)</f>
         <v>40.6</v>
       </c>
+      <c r="P60" s="1">
+        <f>ROUND(G60*100/G$61,1)</f>
+        <v>41.5</v>
+      </c>
       <c r="Q60" s="1">
-        <f t="shared" ref="Q60" si="19">ROUND(G60*100/G$61,1)</f>
-        <v>41.5</v>
+        <f>ROUND(H60*100/H$61,1)</f>
+        <v>41</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" ref="R60" si="20">ROUND(H60*100/H$61,1)</f>
-        <v>41</v>
+        <f>ROUND(I60*100/I$61,1)</f>
+        <v>43.4</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" ref="D61:H61" si="21">SUM(D59:D60)</f>
+        <f t="shared" ref="D61:I61" si="27">SUM(D59:D60)</f>
         <v>108</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>107</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>106</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>106</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>105</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="27"/>
+        <v>106.32</v>
       </c>
     </row>
   </sheetData>
